--- a/data.xlsx
+++ b/data.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buile\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13830" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -585,19 +580,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF4B4F56"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -620,12 +609,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Chuẩn" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -895,7 +883,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -903,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,7 +905,7 @@
     <col min="4" max="4" width="71.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -931,7 +919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -944,12 +932,8 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="str">
-        <f>"INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('"&amp;A3&amp;"',"&amp;B3&amp;",'"&amp;C3&amp;"','"&amp;D3&amp;"');"</f>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Chim Canh Cut',1000,'thubong','uploads/products/14632_1.jpg');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -962,12 +946,8 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1" t="str">
-        <f t="shared" ref="F3:F66" si="0">"INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('"&amp;A4&amp;"',"&amp;B4&amp;",'"&amp;C4&amp;"','"&amp;D4&amp;"');"</f>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Cho Dom',1000,'thubong','uploads/products/16346_1.jpg');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -980,12 +960,8 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Cho Đen',1000,'thubong','uploads/products/16371_1.jpg');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -998,12 +974,8 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Cho Trắng',1000,'thubong','uploads/products/16372_1.jpg');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1016,12 +988,8 @@
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Chó Xù',1000,'thubong','uploads/products/30294374cho-nui-bernesse-me719.jpg');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1034,12 +1002,8 @@
       <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Xe Trượt',10000,'vandong','uploads/products/63773099xe-truot-3-banh-zing400.jpg');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1052,12 +1016,8 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Virizion',10000,'dochoitheophim','uploads/products/68850850do-choi-thu-nhua--m-050-virizion-699.jpg');</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1070,12 +1030,8 @@
       <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Búp Bê Lấp Lánh',10000,'bupbe','uploads/products/92131043bup-be-lap-lanh170.jpg');</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1088,12 +1044,8 @@
       <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Xe BMW',10000,'robot','uploads/products/101425908xe-bmw-i8-514.jpg');</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1106,12 +1058,8 @@
       <c r="D11" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Chó Berhard',1000,'thubong','uploads/products/158443018cho-st--bernhard343.jpg');</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1124,12 +1072,8 @@
       <c r="D12" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Xe Múc',1000,'robot','uploads/products/168727614xe-xuc-dao-mini779.jpg');</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1142,12 +1086,8 @@
       <c r="D13" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Terrakion',10000,'dochoitheophim','uploads/products/207542281do-choi-thu-nhua--m-049-terrakion-436.jpg');</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -1160,12 +1100,8 @@
       <c r="D14" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Shandera',10000,'dochoitheophim','uploads/products/218687512do-choi-thu-nhua--m-005-shandera-125.jpg');</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -1178,12 +1114,8 @@
       <c r="D15" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Lọ lem',10000,'dochoitheophim','uploads/products/236717828thoi-trang-cua-lo-lem-mini848.jpg');</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1196,12 +1128,8 @@
       <c r="D16" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Chó Chăn Cừu Đức',10000,'thubong','uploads/products/250143744cho-chan-cuu-duc10.jpg');</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1214,12 +1142,8 @@
       <c r="D17" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Xe ben mini',10000,'robot','uploads/products/285515868xe-ben-mini651.jpg');</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -1232,12 +1156,8 @@
       <c r="D18" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Xe điều khiển',10000,'robot','uploads/products/286634695murcielago-lp670-4-581.jpg');</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -1250,12 +1170,8 @@
       <c r="D19" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Xe múc 4 bánh',10000,'robot','uploads/products/290894841xe-xuc-4-banh-mini238.jpg');</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -1268,12 +1184,8 @@
       <c r="D20" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Xe trượt màu đỏ',1000,'vandong','uploads/products/298210244xe-truot-3-banh-mau-do-den-zing397.jpg');</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -1286,12 +1198,8 @@
       <c r="D21" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Lâu đài công chúa',10000,'bupbe','uploads/products/309570634lau-dai-cong-chua150.jpg');</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -1304,12 +1212,8 @@
       <c r="D22" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Thời trang bạch tuyết',10000,'dochoitheophim','uploads/products/321662565thoi-trang-du-tiec-cua-bach-tuyet-mini320.jpg');</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -1322,12 +1226,8 @@
       <c r="D23" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Ulgamoth',10000,'dochoitheophim','uploads/products/333022955do-choi-thu-nhua--m-038-ulgamoth-new-73.jpg');</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -1340,12 +1240,8 @@
       <c r="D24" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Xe tải mercedes',1000,'robot','uploads/products/448391160xe-tai-mercedes-benz-zetros-voi-bat-phu726.jpg');</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -1358,12 +1254,8 @@
       <c r="D25" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Nàng tiên cá',10000,'dochoitheophim','uploads/products/458761820vu-dieu-dai-duong386.jpg');</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -1376,12 +1268,8 @@
       <c r="D26" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Bé cưng',1000,'bupbe','uploads/products/500201425be-cung-va-ta-giay-than-ki418.jpg');</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -1394,12 +1282,8 @@
       <c r="D27" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Xe lắp ráp',1000,'robot','uploads/products/506010716do-choi-lap-rap-cat---xe-ben--xe-xuc-4-banh---xe-dao-dat132.jpg');</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -1412,12 +1296,8 @@
       <c r="D28" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Donnie Thông Minh',10000,'dochoitheophim','uploads/products/565824892donnie-thong-minh788.jpg');</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -1430,12 +1310,8 @@
       <c r="D29" t="s">
         <v>63</v>
       </c>
-      <c r="F29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Bé cưng tập bò',1000,'bupbe','uploads/products/584629780be-cung-tap-bo538.jpg');</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -1448,12 +1324,8 @@
       <c r="D30" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Xe điều khiển cyklone',1000,'robot','uploads/products/624563273do-choi-xe-dieu-khien-cyklone-360--cam-40-125.jpg');</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -1466,12 +1338,8 @@
       <c r="D31" t="s">
         <v>67</v>
       </c>
-      <c r="F31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Công chúa elsa',1000,'dochoitheophim','uploads/products/630200436bup-be-cong-chua-elsa-mini-lap-lanh389.jpg');</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -1484,12 +1352,8 @@
       <c r="D32" t="s">
         <v>69</v>
       </c>
-      <c r="F32" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('công chúa anna',1000,'dochoitheophim','uploads/products/647499212cong-chua-anna-va-than-rung695.jpg');</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -1502,12 +1366,8 @@
       <c r="D33" t="s">
         <v>71</v>
       </c>
-      <c r="F33" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('xe đào đất',1000,'robot','uploads/products/651286009xe-dao-dat-mini613.jpg');</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -1520,12 +1380,8 @@
       <c r="D34" t="s">
         <v>73</v>
       </c>
-      <c r="F34" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Chó Úc',10000,'thubong','uploads/products/654943711cho-australian-shepherd-me692.jpg');</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -1538,12 +1394,8 @@
       <c r="D35" t="s">
         <v>76</v>
       </c>
-      <c r="F35" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('elsa',1000,'dochoitheophim','uploads/products/748537835vui-hat-cung-nu-hoang-elsa318.jpg');</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -1556,12 +1408,8 @@
       <c r="D36" t="s">
         <v>77</v>
       </c>
-      <c r="F36" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Tamagetake',10000,'dochoitheophim','uploads/products/748796026do-choi-thu-nhua--m-037-tamagetake-995.jpg');</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -1574,12 +1422,8 @@
       <c r="D37" t="s">
         <v>79</v>
       </c>
-      <c r="F37" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Công chúa tóc mây',10000,'dochoitheophim','uploads/products/762135878picnic-cung-cong-chua-toc-may-mini932.jpg');</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -1592,12 +1436,8 @@
       <c r="D38" t="s">
         <v>82</v>
       </c>
-      <c r="F38" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Công chúa anine',1000,'dochoitheophim','uploads/products/799100178bup-be-cong-chua-anna-mini-lap-lanh242.jpg');</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -1610,12 +1450,8 @@
       <c r="D39" t="s">
         <v>84</v>
       </c>
-      <c r="F39" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Xe cyklone đen',1000,'robot','uploads/products/834902620do-choi-xe-dieu-khien-cyklone-360--den-27-9.jpg');</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -1628,12 +1464,8 @@
       <c r="D40" t="s">
         <v>86</v>
       </c>
-      <c r="F40" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Xe cyklone xanh',1000,'robot','uploads/products/905173519do-choi-xe-dieu-khien-cyklone-360--xanh-40-551.jpg');</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>87</v>
       </c>
@@ -1646,12 +1478,8 @@
       <c r="D41" t="s">
         <v>88</v>
       </c>
-      <c r="F41" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Công chúa belle',1000,'dochoitheophim','uploads/products/912230731thoi-trang-cua-cong-chua-belle-mini34.jpg');</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>90</v>
       </c>
@@ -1664,12 +1492,8 @@
       <c r="D42" t="s">
         <v>89</v>
       </c>
-      <c r="F42" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Phòng ngủ của anna',10000,'dochoitheophim','uploads/products/994679624phong-ngu-cua-anna-mini970.jpg');</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>91</v>
       </c>
@@ -1682,12 +1506,8 @@
       <c r="D43" t="s">
         <v>92</v>
       </c>
-      <c r="F43" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Chú hổ cảm ứng',1000,'robot','uploads/products/1035172530do-choi-chu-ho-cam-ung522.jpg');</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -1700,12 +1520,8 @@
       <c r="D44" t="s">
         <v>94</v>
       </c>
-      <c r="F44" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Bạch tuyết làm vườn',1000,'dochoitheophim','uploads/products/1057592088lam-vuon-cung-bach-tuyet-mini740.jpg');</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>95</v>
       </c>
@@ -1718,12 +1534,8 @@
       <c r="D45" t="s">
         <v>96</v>
       </c>
-      <c r="F45" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Kumasyun',1000,'dochoitheophim','uploads/products/1163364206do-choi-thu-nhua--m-047-kumasyun-760.jpg');</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>98</v>
       </c>
@@ -1736,12 +1548,8 @@
       <c r="D46" t="s">
         <v>97</v>
       </c>
-      <c r="F46" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Búp bê lạ lùng',10000,'bupbe','uploads/products/1183503080bup-be-la-lung504.jpg');</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>100</v>
       </c>
@@ -1754,12 +1562,8 @@
       <c r="D47" t="s">
         <v>99</v>
       </c>
-      <c r="F47" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Chó boxer',1000,'thubong','uploads/products/1255753441cho-boxer-229.jpg');</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>102</v>
       </c>
@@ -1772,12 +1576,8 @@
       <c r="D48" t="s">
         <v>101</v>
       </c>
-      <c r="F48" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Moncole',1000,'dochoitheophim','uploads/products/1256226790do-choi-thu-nhua--m-006-moncole-kurumiru-970.jpg');</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>104</v>
       </c>
@@ -1790,12 +1590,8 @@
       <c r="D49" t="s">
         <v>103</v>
       </c>
-      <c r="F49" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('elsa trượt băng',1000,'dochoitheophim','uploads/products/1312684487truot-bang-cung-elsa-va-anna834.jpg');</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>106</v>
       </c>
@@ -1808,12 +1604,8 @@
       <c r="D50" t="s">
         <v>105</v>
       </c>
-      <c r="F50" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Búp bê hồng hào',1000,'bupbe','uploads/products/1319397445bup-be-hong-hao415.jpg');</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>107</v>
       </c>
@@ -1826,12 +1618,8 @@
       <c r="D51" t="s">
         <v>108</v>
       </c>
-      <c r="F51" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Công chúa tóc xù',1000,'dochoitheophim','uploads/products/1325206736thoi-trang-da-tiec-cua-cong-chua-toc-xu129.jpg');</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>109</v>
       </c>
@@ -1844,12 +1632,8 @@
       <c r="D52" t="s">
         <v>110</v>
       </c>
-      <c r="F52" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Chú rùa cảm ứng',1000,'robot','uploads/products/1327530452do-choi-chu-rua-cam-ung215.jpg');</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>111</v>
       </c>
@@ -1862,12 +1646,8 @@
       <c r="D53" t="s">
         <v>112</v>
       </c>
-      <c r="F53" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('xe trượt màu hồng',1000,'vandong','uploads/products/1355759301xe-truot-3-banh-zing147.jpg');</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>114</v>
       </c>
@@ -1880,12 +1660,8 @@
       <c r="D54" t="s">
         <v>113</v>
       </c>
-      <c r="F54" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Bộ 6 búp bê',1000,'bupbe','uploads/products/Bộ búp bê Nữ hoàng băng giá Frozen Elsa và Anna-215x215.jpg');</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>116</v>
       </c>
@@ -1898,12 +1674,8 @@
       <c r="D55" t="s">
         <v>115</v>
       </c>
-      <c r="F55" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('pokemon lắp ráp',10000,'dochoitheophim','uploads/products/bo-4-hop-do-choi-lap-rap-pokemon-go-215x215.jpg');</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>117</v>
       </c>
@@ -1916,12 +1688,8 @@
       <c r="D56" t="s">
         <v>118</v>
       </c>
-      <c r="F56" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Bộ bàn bilac',1000,'game','uploads/products/bobanhbannho.jpg');</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>119</v>
       </c>
@@ -1934,12 +1702,8 @@
       <c r="D57" t="s">
         <v>120</v>
       </c>
-      <c r="F57" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Bộ bóng rổ',1000,'game','uploads/products/bobongro3trong1.jpg');</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>121</v>
       </c>
@@ -1952,12 +1716,8 @@
       <c r="D58" t="s">
         <v>122</v>
       </c>
-      <c r="F58" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Bộ quay lô tô',1000,'game','uploads/products/boquayloto.jpg');</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>123</v>
       </c>
@@ -1970,12 +1730,8 @@
       <c r="D59" t="s">
         <v>125</v>
       </c>
-      <c r="F59" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Búp bê elsa',1000,'bupbe','uploads/products/bupbe-elsa.jpg');</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>126</v>
       </c>
@@ -1988,12 +1744,8 @@
       <c r="D60" t="s">
         <v>127</v>
       </c>
-      <c r="F60" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('nàng bạch tuyết',1000,'dochoitheophim','uploads/products/bupbe-nangbachtuyet.jpg');</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>128</v>
       </c>
@@ -2006,12 +1758,8 @@
       <c r="D61" t="s">
         <v>129</v>
       </c>
-      <c r="F61" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Búp bê sunset',1000,'bupbe','uploads/products/bupbesunset.jpg');</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>130</v>
       </c>
@@ -2024,12 +1772,8 @@
       <c r="D62" t="s">
         <v>131</v>
       </c>
-      <c r="F62" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Bút sáp 48 màu',1000,'game','uploads/products/butsap48mau.jpg');</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>132</v>
       </c>
@@ -2042,12 +1786,8 @@
       <c r="D63" t="s">
         <v>133</v>
       </c>
-      <c r="F63" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Đàn organ',1000,'dochoitritue','uploads/products/dan-organ-37-phim-co-micro-cap-sac-215x215.jpg');</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>134</v>
       </c>
@@ -2060,12 +1800,8 @@
       <c r="D64" t="s">
         <v>136</v>
       </c>
-      <c r="F64" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Lego',1000,'dochoitritue','uploads/products/do choi LEGO 10558 (3).jpg');</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>138</v>
       </c>
@@ -2078,12 +1814,8 @@
       <c r="D65" t="s">
         <v>137</v>
       </c>
-      <c r="F65" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Đồ chơi học tiếng anh',1000,'dochoitritue','uploads/products/dochoihoctienganh.jpg');</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>139</v>
       </c>
@@ -2096,12 +1828,8 @@
       <c r="D66" t="s">
         <v>140</v>
       </c>
-      <c r="F66" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Bộ đồ nấu ăn',1000,'dodungnhabep','uploads/products/dochoinauanminibox.jpg');</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>141</v>
       </c>
@@ -2114,12 +1842,8 @@
       <c r="D67" t="s">
         <v>143</v>
       </c>
-      <c r="F67" s="1" t="str">
-        <f t="shared" ref="F67:F87" si="1">"INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('"&amp;A68&amp;"',"&amp;B68&amp;",'"&amp;C68&amp;"','"&amp;D68&amp;"');"</f>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Transformers',1000,'dochoitheophim','uploads/products/do-choi-rap-xe-may-bay-thanh-robot-10-con-215x215.jpg');</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>144</v>
       </c>
@@ -2132,12 +1856,8 @@
       <c r="D68" t="s">
         <v>145</v>
       </c>
-      <c r="F68" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Xe Cứu Hỏa',1000,'robot','uploads/products/do-choixe-cuu-hoa-co-bon-chua-nuoc-6-banh-chay-tron-3-215x215.jpg');</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>147</v>
       </c>
@@ -2150,12 +1870,8 @@
       <c r="D69" t="s">
         <v>146</v>
       </c>
-      <c r="F69" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Xe nhào lộn',1000,'robot','uploads/products/do-choi-xe-dieu-khien-nhao-lon-banh-den-215x215.jpg');</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>149</v>
       </c>
@@ -2168,12 +1884,8 @@
       <c r="D70" t="s">
         <v>148</v>
       </c>
-      <c r="F70" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Bóc trứng pokemon',1000,'dochoitheophim','uploads/products/hop-do-choi-boc-trung-pokemon-12-qua-bang-nhua-215x215.jpg');</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>151</v>
       </c>
@@ -2186,12 +1898,8 @@
       <c r="D71" t="s">
         <v>150</v>
       </c>
-      <c r="F71" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Trống',1000,'dochoitritue','uploads/products/hop-do-choi-bo-trong-drum-set-kem-ghe-215x215.jpg');</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>153</v>
       </c>
@@ -2204,12 +1912,8 @@
       <c r="D72" t="s">
         <v>152</v>
       </c>
-      <c r="F72" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Búp bê cô dâu',10000,'bupbe','uploads/products/hop-do-choi-bup-be-co-dau-11-khop-noi-chu-re-ken-270x270.jpg');</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>154</v>
       </c>
@@ -2222,12 +1926,8 @@
       <c r="D73" t="s">
         <v>155</v>
       </c>
-      <c r="F73" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('xe đua f1',10000,'robot','uploads/products/hop-do-choi-xe-dua-the-thao-f1-dieu-khien-tu-xa-1548-180x180.jpg');</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>157</v>
       </c>
@@ -2240,12 +1940,8 @@
       <c r="D74" t="s">
         <v>156</v>
       </c>
-      <c r="F74" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Xe tăng chiến đấu',10000,'robot','uploads/products/hop-do-choi-xe-tank-chien-dau-dung-pin-270x270.jpg');</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>158</v>
       </c>
@@ -2258,12 +1954,8 @@
       <c r="D75" t="s">
         <v>159</v>
       </c>
-      <c r="F75" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Chuột lửa',1000,'dochoitheophim','uploads/products/pokemon-chuotlua.jpg');</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>160</v>
       </c>
@@ -2276,12 +1968,8 @@
       <c r="D76" t="s">
         <v>161</v>
       </c>
-      <c r="F76" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('cobalon',10000,'dochoitheophim','uploads/products/pokemoncobalon.jpg');</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>163</v>
       </c>
@@ -2294,12 +1982,8 @@
       <c r="D77" t="s">
         <v>162</v>
       </c>
-      <c r="F77" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Gà lửa',1000,'dochoitheophim','uploads/products/pokemon-galua.jpg');</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>164</v>
       </c>
@@ -2312,12 +1996,8 @@
       <c r="D78" t="s">
         <v>165</v>
       </c>
-      <c r="F78" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Mèo hỏa tiễn',10000,'dochoitheophim','uploads/products/pokemon-meohoatien.jpg');</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>166</v>
       </c>
@@ -2330,12 +2010,8 @@
       <c r="D79" t="s">
         <v>167</v>
       </c>
-      <c r="F79" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('pikachu',10000,'dochoitheophim','uploads/products/pokemon-pikachu.jpg');</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>168</v>
       </c>
@@ -2348,12 +2024,8 @@
       <c r="D80" t="s">
         <v>169</v>
       </c>
-      <c r="F80" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Rùa nước',10000,'dochoitheophim','uploads/products/pokemon-zenigame.jpg');</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>170</v>
       </c>
@@ -2366,12 +2038,8 @@
       <c r="D81" t="s">
         <v>171</v>
       </c>
-      <c r="F81" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Robot bắn bi',1000,'robot','uploads/products/robotbanbi.jpg');</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>172</v>
       </c>
@@ -2384,12 +2052,8 @@
       <c r="D82" t="s">
         <v>173</v>
       </c>
-      <c r="F82" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Sách tấm cám',10000,'dochoitritue','uploads/products/sachtamcam.jpg');</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>174</v>
       </c>
@@ -2402,12 +2066,8 @@
       <c r="D83" t="s">
         <v>175</v>
       </c>
-      <c r="F83" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('súng nhựa hít tường',10000,'game','uploads/products/sungnhuahittuong.jpg');</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>177</v>
       </c>
@@ -2420,12 +2080,8 @@
       <c r="D84" t="s">
         <v>176</v>
       </c>
-      <c r="F84" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Xe nhỏ',1000,'robot','uploads/products/vi-do-choi-rap-20-xe-oto-thanh-robot-chay-tron-215x215.jpg');</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>179</v>
       </c>
@@ -2438,12 +2094,8 @@
       <c r="D85" t="s">
         <v>178</v>
       </c>
-      <c r="F85" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Xe 3 bánh con ong',100000,'dochoivandong','uploads/products/xe3banhconong.jpg');</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>180</v>
       </c>
@@ -2456,12 +2108,8 @@
       <c r="D86" t="s">
         <v>182</v>
       </c>
-      <c r="F86" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('Xe đạp 14inch',1000000,'dochoivandong','uploads/products/xedap14inch.jpg');</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>184</v>
       </c>
@@ -2474,13 +2122,8 @@
       <c r="D87" t="s">
         <v>183</v>
       </c>
-      <c r="F87" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Product(ProductName, Price, Category, imglink) VALUES('',,'','');</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>